--- a/data/trans_dic/P28A_3_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P28A_3_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido más tabaco respecto al último mes</t>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -680,77 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>33,83%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,42%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,66%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,27; 41,06</t>
+          <t>8,83; 13,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 30,65</t>
+          <t>4,95; 10,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,48</t>
+          <t>3,11; 6,4</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 13,78</t>
+          <t>1,95; 5,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,47; 19,13</t>
+          <t>3,77; 7,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,63; 40,88</t>
+          <t>7,12; 11,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,59; 34,02</t>
+          <t>4,18; 7,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,55; 15,03</t>
+          <t>2,61; 5,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,55; 18,45</t>
+          <t>2,87; 5,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,82; 26,74</t>
+          <t>4,94; 8,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29,49; 38,81</t>
+          <t>8,53; 11,59</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,92; 30,06</t>
+          <t>4,95; 8,28</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,36; 15,07</t>
+          <t>3,15; 5,22</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 14,61</t>
+          <t>2,62; 4,67</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,67</t>
+          <t>4,81; 7,16</t>
         </is>
       </c>
     </row>
@@ -850,77 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,05%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,7; 35,71</t>
+          <t>7,21; 12,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,04; 35,94</t>
+          <t>6,08; 14,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,19; 15,74</t>
+          <t>2,53; 6,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,59; 13,7</t>
+          <t>1,67; 4,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 18,05</t>
+          <t>1,74; 6,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,13; 46,14</t>
+          <t>7,85; 12,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 27,18</t>
+          <t>3,0; 6,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,99; 24,31</t>
+          <t>3,9; 7,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 18,53</t>
+          <t>2,46; 5,82</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,09; 32,33</t>
+          <t>1,95; 6,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,62; 37,51</t>
+          <t>8,32; 11,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 29,7</t>
+          <t>5,06; 9,63</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,52; 17,49</t>
+          <t>3,53; 6,11</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,74</t>
+          <t>2,47; 4,6</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 20,15</t>
+          <t>2,19; 5,67</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1021,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1045,22 +1046,22 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,24%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>8,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,54%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>8,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1070,22 +1071,22 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,38; 38,86</t>
+          <t>2,99; 11,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 30,75</t>
+          <t>0,88; 8,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,82; 31,53</t>
+          <t>2,81; 11,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 31,54</t>
+          <t>1,4; 12,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>25,84; 53,91</t>
+          <t>7,41; 17,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 40,6</t>
+          <t>4,56; 14,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,94; 37,92</t>
+          <t>2,7; 9,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,8; 39,1</t>
+          <t>4,53; 13,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,32; 41,85</t>
+          <t>6,19; 12,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 29,28</t>
+          <t>3,66; 9,72</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 30,51</t>
+          <t>3,61; 9,22</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,52; 28,3</t>
+          <t>3,59; 10,41</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1190,77 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>30,13%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>36,59%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,58%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>9,79%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>16,7%</t>
+          <t>5,4%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 34,94</t>
+          <t>8,32; 11,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,01; 28,79</t>
+          <t>5,71; 10,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,16; 15,52</t>
+          <t>3,39; 5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 12,55</t>
+          <t>2,24; 4,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,31; 17,47</t>
+          <t>3,58; 6,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>32,25; 41,11</t>
+          <t>8,28; 11,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 28,51</t>
+          <t>4,37; 6,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 17,98</t>
+          <t>3,61; 5,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,04; 18,26</t>
+          <t>3,52; 5,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,33; 24,93</t>
+          <t>4,7; 7,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,71; 36,47</t>
+          <t>8,63; 10,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,86</t>
+          <t>5,36; 7,75</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 15,53</t>
+          <t>3,78; 5,36</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>9,47; 13,9</t>
+          <t>3,13; 4,78</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>14,09; 19,75</t>
+          <t>4,51; 6,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido más tabaco respecto al último mes (tasa de respuesta: 99,96%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>179745</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>116675</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73773</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>50978</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>12060</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>160541</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>99844</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>66743</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>72507</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>15440</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>340286</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>216519</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>140517</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>123485</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27499</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>144882; 222010</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>81822; 177850</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51163; 105370</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>31994; 83846</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8616; 16167</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>127369; 203631</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>75336; 130743</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>47646; 95450</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>52136; 99776</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11756; 19789</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>292485; 397412</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>170840; 285924</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>109555; 181351</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>90563; 161472</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>22445; 33404</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>133607</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>126981</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53628</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>40294</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2570</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>143126</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>60905</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75563</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>53608</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2575</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>276733</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>187886</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>129191</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>93902</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5145</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99979; 170491</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>83507; 205637</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>34847; 83371</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22957; 64814</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1260; 5006</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>110676; 181245</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>41611; 89314</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>53561; 104813</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34008; 80365</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1279; 4494</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>232685; 332668</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>139885; 266118</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>97140; 167984</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>68042; 126921</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3013; 7813</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25993</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15229</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26159</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18531</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48110</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>35904</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22714</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33876</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74103</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>51133</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>48873</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>52408</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12657; 47689</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3704; 36337</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11887; 48990</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>5899; 54165</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>30539; 70576</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>18785; 58493</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11063; 40114</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18679; 54272</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>51678; 102908</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>30543; 81169</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>30045; 76733</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>29985; 86915</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>294.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>339345</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>258885</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>153560</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>109803</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>14629</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>351776</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>196653</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>165020</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>18015</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>691121</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>455538</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>318581</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>269795</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>32644</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>286891; 399739</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>196914; 348755</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>116716; 205041</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>77033; 155953</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10791; 19527</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>298980; 405252</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>157372; 243722</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>130483; 203207</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>127216; 202996</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14272; 23185</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>609248; 768233</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>377680; 546818</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>266620; 378761</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>220505; 336726</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>27284; 39287</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>